--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1264136.29936258</v>
+        <v>-1266617.21918804</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>191.2610823193164</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838813</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335567</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851355</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545852</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663272</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001942</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689273</v>
+        <v>37.53356801933791</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.817218682479</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594429</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271945</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271175</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292098</v>
+        <v>46.29620842771655</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184866</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>201.956864405551</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838813</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335567</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851355</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545852</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>240.8738863409529</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104948</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>132.6875958622066</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913428</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689273</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271945</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271175</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>198.6543727925859</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>127.4058213387996</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>179.0379714334865</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>195.6954497347427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247902</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249343</v>
+        <v>137.1198840074574</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085025</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121747</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181091</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308721</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>308.7672026803517</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.1290955946932</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085025</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411917</v>
+        <v>84.85683139908302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643284</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2734363206846</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181091</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308721</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247764</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085025</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721232</v>
+        <v>133.9254590121762</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411917</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643284</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>208.053360265412</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181091</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308721</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C26" t="n">
         <v>318.2977551524149</v>
@@ -2561,7 +2561,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231188</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958316</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800352</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279765</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433857</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572811</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145466</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>93.13769105450123</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>164.0711673124573</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,7 +3487,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>143.0438109257884</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>196.6598613601163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
         <v>69.5621008705229</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>90.60953276887641</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>230.7340562419016</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846416</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621577</v>
+        <v>89.27723295060996</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -4192,10 +4192,10 @@
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>239.7977839309379</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2140.018136355092</v>
+        <v>1823.749336508873</v>
       </c>
       <c r="C11" t="n">
-        <v>1798.247686674405</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.174055327378</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.577869988857</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589729</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636929</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218357</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810558</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.735001525325</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.158413514935</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2696.158413514935</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.211148798846</v>
+        <v>1823.749336508873</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7584402581851</v>
+        <v>782.2440901013229</v>
       </c>
       <c r="C13" t="n">
-        <v>619.0143245900017</v>
+        <v>640.4999744331396</v>
       </c>
       <c r="D13" t="n">
-        <v>496.0897524373896</v>
+        <v>517.5754022805276</v>
       </c>
       <c r="E13" t="n">
-        <v>375.3687261147199</v>
+        <v>396.8543759578581</v>
       </c>
       <c r="F13" t="n">
-        <v>255.6708458765332</v>
+        <v>277.1564957196714</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765332</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402567</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2093.73826216185</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1929.2444452484</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1734.66989707765</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290402</v>
+        <v>1472.759097463017</v>
       </c>
       <c r="V13" t="n">
-        <v>1417.381538557522</v>
+        <v>1245.266676516854</v>
       </c>
       <c r="W13" t="n">
-        <v>1155.156435780285</v>
+        <v>983.0415737396168</v>
       </c>
       <c r="X13" t="n">
-        <v>954.3589521419917</v>
+        <v>782.2440901013229</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7584402581851</v>
+        <v>782.2440901013229</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1725.053176228255</v>
+        <v>1184.064799705181</v>
       </c>
       <c r="C14" t="n">
-        <v>1383.282726547567</v>
+        <v>1184.064799705181</v>
       </c>
       <c r="D14" t="n">
-        <v>1052.20909520054</v>
+        <v>852.9911683581545</v>
       </c>
       <c r="E14" t="n">
-        <v>693.6129098620197</v>
+        <v>852.9911683581545</v>
       </c>
       <c r="F14" t="n">
-        <v>309.8190723321359</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="G14" t="n">
-        <v>309.8190723321359</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218346</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395992</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039938</v>
+        <v>3108.4793457877</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.721540039938</v>
+        <v>2882.140936321261</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.850719956091</v>
+        <v>2578.270116237414</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.2741319457</v>
+        <v>2252.693528227023</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.000440944344</v>
+        <v>1906.419837225667</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.053176228255</v>
+        <v>1543.472572509579</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237427</v>
+        <v>780.5481833010724</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555592</v>
+        <v>638.8040676328892</v>
       </c>
       <c r="D16" t="n">
-        <v>636.600521802947</v>
+        <v>515.8794954802767</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802775</v>
+        <v>515.8794954802767</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420906</v>
+        <v>396.1816152420901</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765331</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058533</v>
+        <v>1976.008292145085</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.502109058533</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1939.84112643976</v>
+        <v>1519.522944359702</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.348705493596</v>
+        <v>1519.522944359702</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716359</v>
+        <v>1257.297841582465</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078065</v>
+        <v>1128.605092755395</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194259</v>
+        <v>935.0045808715884</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542002</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1338.057621750602</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>1054.433623351648</v>
+        <v>940.9592424104349</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2870709612005</v>
+        <v>743.2870709611998</v>
       </c>
       <c r="F17" t="n">
-        <v>406.9428663793901</v>
+        <v>406.9428663793899</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218343</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939509</v>
@@ -5537,7 +5537,7 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344064</v>
@@ -5558,7 +5558,7 @@
         <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927795</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235547</v>
+        <v>632.1517731235555</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034447</v>
+        <v>537.8572904034456</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989059</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243097</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604116</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
@@ -5698,7 +5698,7 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088442</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459975</v>
+        <v>739.1585377459982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1830.862197398328</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1536.541380665713</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1252.917382266759</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446364</v>
+        <v>941.7708298763123</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5753,7 +5753,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5768,19 +5768,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
         <v>2979.732029417716</v>
@@ -5795,7 +5795,7 @@
         <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1855.320338666652</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872292</v>
+        <v>632.1517731235555</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671191</v>
+        <v>537.8572904034456</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625803</v>
+        <v>462.3823511989069</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879841</v>
+        <v>389.1109578243108</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>316.8627105341975</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>223.8015741167135</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604119</v>
+        <v>152.2260875423683</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952116</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356256</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454052</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.128543609672</v>
+        <v>739.1585377459982</v>
       </c>
     </row>
     <row r="23">
@@ -5972,67 +5972,67 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349351</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.4813261528503</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>722.3006998426968</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1173.334913091106</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1706.86681776303</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.256754485352</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.229225364689</v>
+        <v>2756.618105701149</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714078</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902808</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290295</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.784598923574</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.250040950459</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830771</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094466</v>
+        <v>92.38504642094441</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775281</v>
+        <v>639.0174115138544</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574182</v>
+        <v>544.7229287937446</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528793</v>
+        <v>469.2479895892059</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782831</v>
+        <v>395.9765962146098</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706855</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634015</v>
+        <v>96.06173179633998</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6175,22 +6175,22 @@
         <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119738</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453178</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259245</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357041</v>
+        <v>892.1750550720302</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999709</v>
+        <v>746.0241761362971</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2568.163811692541</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277654</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572249</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104634</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776558</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.303399835341</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982168</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195691</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075028</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,31 +7005,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.2736995386227</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107159</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722235</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898304</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657634</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7099,7 +7099,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
         <v>976.3387758760405</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1668.551646658397</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.107160725841</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262723</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.043308938549</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.9221643688625</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="38">
@@ -7151,55 +7151,55 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464962</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307321</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7211,13 +7211,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7239,16 +7239,16 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,28 +7257,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647796</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C40" t="n">
-        <v>529.337516610716</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722235</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636737</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657634</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.107160725841</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.68999068888</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X40" t="n">
-        <v>903.3718743647061</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211759</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7454,7 +7454,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647792</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C43" t="n">
-        <v>529.3375166107157</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D43" t="n">
-        <v>379.22087719838</v>
+        <v>619.1970173202019</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898303</v>
+        <v>471.2839237378088</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657633</v>
+        <v>324.3939762398984</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>255.3625741884607</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7597,22 +7597,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.44877978404</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1223.435726151997</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.68999068888</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>903.3718743647057</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.250729795019</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,49 +7631,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
@@ -7682,13 +7682,13 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909355</v>
+        <v>642.2355359389146</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>473.2993530110077</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>421.8541481725154</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>273.9410545901223</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>225.7225416660553</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146177</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1430.923028089547</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.23853988366</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>934.0185561150358</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>804.7004397908619</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473317</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430633</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729011</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389608</v>
+        <v>191.4948909389605</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830242</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.0103836266125</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372535</v>
+        <v>113.6031223372534</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.1013981253594</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677692</v>
+        <v>92.30246558677661</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.612932010175427e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.627142864890629e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185278</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>18.01571720695176</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>287.0017854473897</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>343.5485285966302</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>78.40458911672741</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>402.5500016878935</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.5526127570379</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104948</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717757</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913428</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.7842240495893</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.71579765520439</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>23.26063233115072</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763543</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663272</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>26.81373145924132</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579958</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31022769028704</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717757</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292098</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>60.63731882590065</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>71.38368746311103</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>112.3396371318021</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>112.3396371318</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>24.21355985564073</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.2135598556414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1184741.7846039</v>
+        <v>1184741.784603901</v>
       </c>
     </row>
     <row r="8">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225300.9931471856</v>
+        <v>225300.9931471855</v>
       </c>
       <c r="C2" t="n">
         <v>225300.9931471856</v>
       </c>
       <c r="D2" t="n">
-        <v>225307.1341966352</v>
+        <v>225307.1341966353</v>
       </c>
       <c r="E2" t="n">
         <v>200623.5002488679</v>
@@ -26326,7 +26326,7 @@
         <v>200623.500248868</v>
       </c>
       <c r="G2" t="n">
-        <v>218495.9758427974</v>
+        <v>218495.9758427975</v>
       </c>
       <c r="H2" t="n">
         <v>218495.9758427974</v>
@@ -26335,19 +26335,19 @@
         <v>225786.4867126778</v>
       </c>
       <c r="J2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="K2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="L2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126779</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552226</v>
+        <v>59764.55367552274</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983363</v>
+        <v>22821.46782983354</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179683</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
-        <v>6.019399734213948e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434265</v>
+        <v>435086.1724434263</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866189</v>
+        <v>40634.10590866202</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866189</v>
+        <v>40634.10590866212</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010418</v>
+        <v>77662.26627010433</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010424</v>
+        <v>77662.26627010433</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.68494905918</v>
+        <v>91903.6849490592</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462824</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="K4" t="n">
         <v>91012.35309462826</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.3530946283</v>
+        <v>91012.35309462824</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="O4" t="n">
+        <v>92793.842883194</v>
+      </c>
+      <c r="P4" t="n">
         <v>92793.84288319403</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92793.84288319407</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624988</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266101.9676783519</v>
+        <v>-266106.38125622</v>
       </c>
       <c r="C6" t="n">
-        <v>-266101.9676783519</v>
+        <v>-266106.38125622</v>
       </c>
       <c r="D6" t="n">
-        <v>-304692.4973541799</v>
+        <v>-304696.8551043259</v>
       </c>
       <c r="E6" t="n">
-        <v>-1005819.068188253</v>
+        <v>-1006047.822610651</v>
       </c>
       <c r="F6" t="n">
-        <v>83419.9039753796</v>
+        <v>83191.14955298105</v>
       </c>
       <c r="G6" t="n">
-        <v>22734.95715260418</v>
+        <v>22668.67978105982</v>
       </c>
       <c r="H6" t="n">
-        <v>60315.06644747862</v>
+        <v>60248.7890759338</v>
       </c>
       <c r="I6" t="n">
-        <v>25324.8056319429</v>
+        <v>25324.805631943</v>
       </c>
       <c r="J6" t="n">
-        <v>19986.75892144692</v>
+        <v>19986.75892144657</v>
       </c>
       <c r="K6" t="n">
         <v>45396.19194324364</v>
       </c>
       <c r="L6" t="n">
-        <v>7816.082648369586</v>
+        <v>7816.082648369673</v>
       </c>
       <c r="M6" t="n">
-        <v>-151694.0534694904</v>
+        <v>-151694.0534694903</v>
       </c>
       <c r="N6" t="n">
-        <v>50474.04652323412</v>
+        <v>50474.04652323401</v>
       </c>
       <c r="O6" t="n">
-        <v>50474.04652323398</v>
+        <v>50474.04652323409</v>
       </c>
       <c r="P6" t="n">
         <v>50474.0465232339</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379058</v>
+        <v>69.78465283790636</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951233</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379058</v>
+        <v>69.78465283790636</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.657245571191316e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873671</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758417</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959718</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.22861846672107</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987526</v>
+        <v>90.83829126987519</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519092</v>
+        <v>84.46220888519085</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990463</v>
+        <v>7.649035050990344</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317061</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712631</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712631</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075497</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075656</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075507</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075733</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075505</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>11.49558901075724</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661858981</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T37" t="n">
-        <v>55.47778196371192</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.47778196371175</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="41">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
         <v>97.68472022810494</v>
@@ -30624,19 +30624,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>97.68472022810494</v>
       </c>
-      <c r="F43" t="n">
-        <v>97.68472022810494</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>54.14548214544438</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30669,10 +30669,10 @@
         <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
         <v>97.68472022810494</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810501</v>
+        <v>55.47778196371083</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>46.72521440565311</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413296</v>
+        <v>0.2805413179413319</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366643</v>
+        <v>2.873093772366666</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993312</v>
+        <v>10.81556915993321</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362295</v>
+        <v>23.81059368362314</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207944</v>
+        <v>35.68590767207973</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102641</v>
+        <v>44.27152403102677</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396553</v>
+        <v>49.26060069396593</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356634</v>
+        <v>50.05768871356675</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328724</v>
+        <v>47.26805598328762</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661065</v>
+        <v>40.34219219661099</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783678</v>
+        <v>30.29530624783703</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313206</v>
+        <v>17.62255356313221</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588055</v>
+        <v>6.392835282588107</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288171</v>
+        <v>1.228069619288181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530636</v>
+        <v>0.02244330543530655</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796464</v>
+        <v>0.1501028381796476</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084027</v>
+        <v>1.449677410840281</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693968</v>
+        <v>5.168014384694009</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906914</v>
+        <v>14.18142647906926</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710545</v>
+        <v>24.23831663710565</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264648</v>
+        <v>32.59140791264674</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665865</v>
+        <v>38.03263579665897</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655638</v>
+        <v>39.03924649655669</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847053</v>
+        <v>35.71328360847082</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449757</v>
+        <v>28.66305863449781</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447557</v>
+        <v>19.16049562447573</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767877</v>
+        <v>9.319542882767951</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608782</v>
+        <v>2.788094384608804</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890132</v>
+        <v>0.6050197731890181</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345164</v>
+        <v>0.009875186722345244</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486826</v>
+        <v>0.1258411772486836</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811015</v>
+        <v>1.118842466811024</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078564</v>
+        <v>3.784387403078595</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481857</v>
+        <v>8.896971231481929</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489239</v>
+        <v>14.62045677489251</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477232</v>
+        <v>18.70915102477247</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908212</v>
+        <v>19.72617653908228</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115523</v>
+        <v>19.25713215115539</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875016</v>
+        <v>17.7870783987503</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287702</v>
+        <v>15.21991838287714</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852378</v>
+        <v>10.53748257852386</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381671</v>
+        <v>5.658276933381718</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233858</v>
+        <v>2.193068516233876</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625526</v>
+        <v>0.5376850300625571</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564512</v>
+        <v>0.006864064213564568</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35574,7 +35574,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019273</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>318.2864356872403</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,16 +36367,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>570.3175526198632</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>795.0547863356088</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316589</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637016</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564835</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>799.1386429889624</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204469</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>954.851837100805</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129138</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
